--- a/average_satisfaction_similar_g2.xlsx
+++ b/average_satisfaction_similar_g2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1E71C6-FAD7-4CD5-B8EC-878E5C456853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C098A26-B44A-42C0-82BB-D45505229B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{49CFA3D4-8EF7-4B94-B3CC-A75E7D610312}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{27A8ECB9-59D7-49F6-B847-06327977439F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2A124-E975-4279-9B9C-FC5AFB759DB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42082579-1F35-4E1A-9428-27C5816037D2}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.77936346867834372</v>
+        <v>0.69012797639310719</v>
       </c>
       <c r="B1">
-        <v>0.87108634223926684</v>
+        <v>0.92208827133815385</v>
       </c>
       <c r="C1">
-        <v>0.89517005800868388</v>
+        <v>0.89359220446630994</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>0.82050220062852286</v>
       </c>
       <c r="E1">
-        <v>0.97360016114555259</v>
+        <v>0.92607949312284588</v>
       </c>
       <c r="F1">
-        <v>0.92173235793055186</v>
+        <v>0.75725301563209479</v>
       </c>
       <c r="G1">
-        <v>0.66898616135582023</v>
+        <v>0.92087807906572827</v>
       </c>
       <c r="H1">
-        <v>0.83243439318267554</v>
+        <v>0.87768922152225848</v>
       </c>
       <c r="I1">
-        <v>0.8560008296294157</v>
+        <v>0.98749611782952351</v>
       </c>
       <c r="J1">
-        <v>0.71123665167574368</v>
+        <v>0.93017026552147763</v>
       </c>
       <c r="K1">
-        <v>0.79259036188091236</v>
+        <v>1.1999386840151665</v>
       </c>
       <c r="L1">
-        <v>0.7166330765725003</v>
+        <v>1.0273068903612412</v>
       </c>
       <c r="M1">
-        <v>0.85626625506854059</v>
+        <v>1.0008200730171135</v>
       </c>
       <c r="N1">
-        <v>0.88393943098303629</v>
+        <v>1.0228539199343305</v>
       </c>
       <c r="O1">
-        <v>0.91362078057327789</v>
+        <v>0.31943024069057441</v>
       </c>
       <c r="P1">
-        <v>0.58560726057114698</v>
+        <v>0.82773212576436739</v>
       </c>
       <c r="Q1">
-        <v>0.95952360724888219</v>
+        <v>0.74451442092846254</v>
       </c>
       <c r="R1">
-        <v>0.57729551155104475</v>
+        <v>0.90486097305121838</v>
       </c>
       <c r="S1">
-        <v>0.76308290447788929</v>
+        <v>1.0764329492444142</v>
       </c>
       <c r="T1">
-        <v>0.64233816365096208</v>
+        <v>0.99235086893195856</v>
       </c>
       <c r="U1">
-        <v>0.86659801586808838</v>
+        <v>0.93579079199667181</v>
       </c>
       <c r="V1">
-        <v>0.83163945943660744</v>
+        <v>1.2125918356524794</v>
       </c>
       <c r="W1">
-        <v>0.7968792969737527</v>
+        <v>1.0943281382121417</v>
       </c>
       <c r="X1">
-        <v>0.69215268610398217</v>
+        <v>0.82246948043501245</v>
       </c>
       <c r="Y1">
-        <v>0.77219941088623367</v>
+        <v>0.80025764752231832</v>
       </c>
       <c r="Z1">
-        <v>0.76652367052062242</v>
+        <v>1.0332901125489078</v>
       </c>
       <c r="AA1">
-        <v>0.82284477446476512</v>
+        <v>0.87710637920036749</v>
       </c>
       <c r="AB1">
-        <v>0</v>
+        <v>0.654966101117468</v>
       </c>
       <c r="AC1">
-        <v>0.77463289049973783</v>
+        <v>0.93754637807182462</v>
       </c>
       <c r="AD1">
-        <v>0.86644676159347112</v>
+        <v>0.76946412807713449</v>
       </c>
       <c r="AE1">
-        <v>0.94521471127539336</v>
+        <v>0.87710985415186193</v>
       </c>
       <c r="AF1">
-        <v>0.82472704893438864</v>
+        <v>1.0384664142296693</v>
       </c>
       <c r="AG1">
-        <v>0.92193355663535936</v>
+        <v>0.91843414640878629</v>
       </c>
       <c r="AH1">
         <v>0</v>
       </c>
       <c r="AI1">
-        <v>0.78061779671809173</v>
+        <v>1.1603880379292184</v>
       </c>
       <c r="AJ1">
-        <v>0.73682409982228425</v>
+        <v>0.91969888283521639</v>
       </c>
       <c r="AK1">
-        <v>0.68114532863760857</v>
+        <v>0.78887452604745223</v>
       </c>
       <c r="AL1">
-        <v>0.71962801165996371</v>
+        <v>0.87213351744182421</v>
       </c>
       <c r="AM1">
-        <v>0.94551393145841978</v>
+        <v>0.93616177066273754</v>
       </c>
       <c r="AN1">
-        <v>0.63490740299759751</v>
+        <v>0.96206379476555492</v>
       </c>
       <c r="AO1">
-        <v>0.80216903886447211</v>
+        <v>1.083393602729078</v>
       </c>
       <c r="AP1">
-        <v>0.79304715003513715</v>
+        <v>0.96633217010264361</v>
       </c>
       <c r="AQ1">
-        <v>0.91471407028558893</v>
+        <v>0.90148905608150309</v>
       </c>
       <c r="AR1">
-        <v>0.86656038716457662</v>
+        <v>0.86534351585687441</v>
       </c>
       <c r="AS1">
-        <v>0.72959713125143033</v>
+        <v>0.93896231572328881</v>
       </c>
       <c r="AT1">
-        <v>0.91882140342419527</v>
+        <v>1.096455473212367</v>
       </c>
       <c r="AU1">
-        <v>0.68723966774468914</v>
+        <v>0.95798180359571905</v>
       </c>
       <c r="AV1">
-        <v>0.69567315950146424</v>
+        <v>1.1482437290144543</v>
       </c>
       <c r="AW1">
-        <v>0.95792379205166067</v>
+        <v>0.91510178321852587</v>
       </c>
       <c r="AX1">
-        <v>0.90967169329295505</v>
+        <v>0.89662410034377027</v>
       </c>
       <c r="AY1">
-        <v>0.89958941800987324</v>
+        <v>0.82640500422878305</v>
       </c>
       <c r="AZ1">
-        <v>0.85380693416648634</v>
+        <v>0.86167429020226693</v>
       </c>
       <c r="BA1">
-        <v>0.79784092145981811</v>
+        <v>0.6103581492826472</v>
       </c>
       <c r="BB1">
-        <v>0.92765655187811946</v>
+        <v>0.98512981959302615</v>
       </c>
       <c r="BC1">
-        <v>0.62952297435503002</v>
+        <v>0.81469134889713901</v>
       </c>
       <c r="BD1">
-        <v>0.91780729644074466</v>
+        <v>1.0115068274322931</v>
       </c>
       <c r="BE1">
-        <v>0.84636958760602388</v>
+        <v>0.92088892905559383</v>
       </c>
       <c r="BF1">
-        <v>0.72825646213304929</v>
+        <v>0.69049816649122564</v>
       </c>
       <c r="BG1">
-        <v>0.73393981688620524</v>
+        <v>1.08609056651004</v>
       </c>
       <c r="BH1">
-        <v>0.77005570280524871</v>
+        <v>1.1142064011037307</v>
       </c>
       <c r="BI1">
-        <v>0.929854917248083</v>
+        <v>1.1360513731526825</v>
       </c>
       <c r="BJ1">
-        <v>0.8187969046070277</v>
+        <v>0.97268939924715203</v>
       </c>
       <c r="BK1">
-        <v>0.86198831137009935</v>
+        <v>0.80131999956575639</v>
       </c>
       <c r="BL1">
-        <v>0.76250658211233313</v>
+        <v>0.98085935414902303</v>
       </c>
       <c r="BM1">
-        <v>0.70027831779835525</v>
+        <v>0.89962097419128784</v>
       </c>
       <c r="BN1">
-        <v>0.83830597694109166</v>
+        <v>0.90082443380472432</v>
       </c>
       <c r="BO1">
+        <v>0.7134814537694294</v>
+      </c>
+      <c r="BP1">
         <v>0</v>
       </c>
-      <c r="BP1">
-        <v>0.88071787263871837</v>
-      </c>
       <c r="BQ1">
-        <v>0.89660380850598287</v>
+        <v>1.1151311016812711</v>
       </c>
       <c r="BR1">
-        <v>0.63096742626765046</v>
+        <v>0.84110271327578701</v>
       </c>
       <c r="BS1">
-        <v>0.76409642698363411</v>
+        <v>0.95068263868329428</v>
       </c>
       <c r="BT1">
-        <v>0.83782745493209221</v>
+        <v>0.35714370502500165</v>
       </c>
       <c r="BU1">
-        <v>0.91455766356467139</v>
+        <v>0.86292259056963638</v>
       </c>
       <c r="BV1">
-        <v>0.8544458779415397</v>
+        <v>0.84767045175971989</v>
       </c>
       <c r="BW1">
-        <v>0.8303235613922747</v>
+        <v>1.0450550134108896</v>
       </c>
       <c r="BX1">
-        <v>0.92075948181875855</v>
+        <v>0.6901913539265373</v>
       </c>
       <c r="BY1">
-        <v>0.8152033596674505</v>
+        <v>0.90509643950885466</v>
       </c>
       <c r="BZ1">
-        <v>0.72309774202027388</v>
+        <v>0</v>
       </c>
       <c r="CA1">
-        <v>0.84105887521668787</v>
+        <v>1.0786935472694663</v>
       </c>
       <c r="CB1">
-        <v>0.56131374967955072</v>
+        <v>0.90917753999962481</v>
       </c>
       <c r="CC1">
-        <v>0.56541942096535991</v>
+        <v>0</v>
       </c>
       <c r="CD1">
-        <v>0.8846200655955424</v>
+        <v>0.84031262548997099</v>
       </c>
       <c r="CE1">
-        <v>0.71888479338895195</v>
+        <v>0.8423699029666446</v>
       </c>
       <c r="CF1">
-        <v>0.87199751023647532</v>
+        <v>0.79196383913942159</v>
       </c>
       <c r="CG1">
-        <v>0.75464798601847771</v>
+        <v>1.04314292151483</v>
       </c>
       <c r="CH1">
-        <v>0.66000705733694487</v>
+        <v>0</v>
       </c>
       <c r="CI1">
-        <v>0.85842035709181375</v>
+        <v>0.62704579256580584</v>
       </c>
       <c r="CJ1">
-        <v>0.89517846686639169</v>
+        <v>0.88936818486382807</v>
       </c>
       <c r="CK1">
-        <v>0.8076998641463603</v>
+        <v>0</v>
       </c>
       <c r="CL1">
-        <v>0.75655610704256404</v>
+        <v>0.6195314329355105</v>
       </c>
       <c r="CM1">
-        <v>0.8336178416608071</v>
+        <v>0.40567143730455218</v>
       </c>
       <c r="CN1">
-        <v>0.85513644908134923</v>
+        <v>1.0285281821237724</v>
       </c>
       <c r="CO1">
-        <v>0.82671922812319532</v>
+        <v>0.84087188089044407</v>
       </c>
       <c r="CP1">
-        <v>0.75016682151577296</v>
+        <v>0.78090721824919107</v>
       </c>
       <c r="CQ1">
-        <v>0.80741361304610215</v>
+        <v>0.99613271467607267</v>
       </c>
       <c r="CR1">
-        <v>0.68849241297984565</v>
+        <v>0.63985179420894245</v>
       </c>
       <c r="CS1">
-        <v>0.74943007188945376</v>
+        <v>0.99344173802401625</v>
       </c>
       <c r="CT1">
-        <v>0.62608320237302495</v>
+        <v>0.81947548422956851</v>
       </c>
       <c r="CU1">
-        <v>0.76979814623315657</v>
+        <v>0.85947714320915158</v>
       </c>
       <c r="CV1">
-        <v>0.83792470515206163</v>
+        <v>1.0824705158257684</v>
       </c>
     </row>
   </sheetData>
